--- a/Sql server- SSMS - SSIS/SSMS/table data/exchange_rates.xlsx
+++ b/Sql server- SSMS - SSIS/SSMS/table data/exchange_rates.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7ae6cfe89d2062d/Documents/SQL Server Management Studio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7ae6cfe89d2062d/Documents/DE-practice/Sql server- SSMS - SSIS/SSMS/table data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E63734EA-B30C-4629-9076-FA9A5040A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DB522B8-9F6A-4238-8E46-0FD25C48DB29}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E63734EA-B30C-4629-9076-FA9A5040A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD9C00A1-473E-47FF-AD47-B786F1841974}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{E7C8E430-8999-4C97-9459-AFC53CEE48B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,6 +116,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Sql server- SSMS - SSIS/SSMS/table data/exchange_rates.xlsx
+++ b/Sql server- SSMS - SSIS/SSMS/table data/exchange_rates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7ae6cfe89d2062d/Documents/DE-practice/Sql server- SSMS - SSIS/SSMS/table data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="https://d.docs.live.net/c7ae6cfe89d2062d/Documents/DE-practice/Sql server- SSMS - SSIS/SSMS/table data/"/>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{E63734EA-B30C-4629-9076-FA9A5040A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD9C00A1-473E-47FF-AD47-B786F1841974}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{E7C8E430-8999-4C97-9459-AFC53CEE48B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="rates" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="rates"/>
+    <sheet r:id="rId6" name="Excel_Destination" sheetId="2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Excel_Destination">'Excel_Destination'!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AD34E-F8B6-432E-AF08-C05731C7778E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{489AD34E-F8B6-432E-AF08-C05731C7778E}">
+  <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -453,7 +453,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -481,7 +481,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -509,7 +509,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -517,13 +517,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7.4000000000000003E-3</v>
+        <v>0.0074</v>
       </c>
       <c r="D5" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -535,6 +535,5885 @@
       </c>
       <c r="D6" s="1">
         <v>45292</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C8" s="0">
+        <v>3.6725</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C9" s="0">
+        <v>73.567244</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C10" s="0">
+        <v>94.479292</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C11" s="0">
+        <v>394.283875</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>ANG</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C12" s="0">
+        <v>1.79</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>AOA</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C13" s="0">
+        <v>918.950821</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C14" s="0">
+        <v>1064.38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C15" s="0">
+        <v>1.609776</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>AWG</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C16" s="0">
+        <v>1.79</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C17" s="0">
+        <v>1.701348</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>BAM</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C18" s="0">
+        <v>1.883144</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>BBD</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C19" s="0">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C20" s="0">
+        <v>121.533146</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>BGN</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C21" s="0">
+        <v>1.882652</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C22" s="0">
+        <v>0.376</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>BIF</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C23" s="0">
+        <v>2966.58496</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>BMD</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C24" s="0">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>BND</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C25" s="0">
+        <v>1.349272</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>BOB</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C26" s="0">
+        <v>6.931657</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C27" s="0">
+        <v>5.836143</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>BSD</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C28" s="0">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C29" s="0">
+        <v>87.472345</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>BWP</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C30" s="0">
+        <v>13.869216</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>BYN</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C31" s="0">
+        <v>3.262777</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>BZD</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C32" s="0">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" s="0">
+        <v>1.444062</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>CDF</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C34" s="0">
+        <v>2853.567033</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C35" s="0">
+        <v>0.902465</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C36" s="0">
+        <v>951.423313</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C37" s="0">
+        <v>7.291467</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C38" s="0">
+        <v>4127.387788</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C39" s="0">
+        <v>506.560251</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C40" s="0">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>CVE</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C41" s="0">
+        <v>106.167149</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>CZK</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C42" s="0">
+        <v>24.081427</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>DJF</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C43" s="0">
+        <v>177.721</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>DKK</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C44" s="0">
+        <v>7.177378</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>DOP</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C45" s="0">
+        <v>62.423875</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>DZD</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C46" s="0">
+        <v>134.775343</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C47" s="0">
+        <v>50.653948</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>ERN</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C48" s="0">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C49" s="0">
+        <v>126.912033</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C50" s="0">
+        <v>0.962839</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>FJD</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C51" s="0">
+        <v>2.297856</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>FKP</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C52" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>FOK</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C53" s="0">
+        <v>7.177363</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C54" s="0">
+        <v>0.794016</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>GEL</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C55" s="0">
+        <v>2.792882</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>GGP</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C56" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C57" s="0">
+        <v>15.568282</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>GIP</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C58" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>GMD</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C59" s="0">
+        <v>72.611688</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C60" s="0">
+        <v>8649.652475</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>GTQ</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C61" s="0">
+        <v>7.723127</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>GYD</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C62" s="0">
+        <v>209.56645</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C63" s="0">
+        <v>7.778258</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C64" s="0">
+        <v>25.614075</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>HRK</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C65" s="0">
+        <v>7.25449</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>HTG</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C66" s="0">
+        <v>131.180859</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>HUF</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C67" s="0">
+        <v>386.012611</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C68" s="0">
+        <v>16573.22046</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>ILS</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C69" s="0">
+        <v>3.593845</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>IMP</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C70" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C71" s="0">
+        <v>87.47261</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>IQD</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C72" s="0">
+        <v>1312.319856</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>IRR</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C73" s="0">
+        <v>42000.241729</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>ISK</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C74" s="0">
+        <v>139.890913</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>JEP</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C75" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>JMD</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C76" s="0">
+        <v>157.879076</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>JOD</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C77" s="0">
+        <v>0.709</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C78" s="0">
+        <v>150.570469</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>KES</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C79" s="0">
+        <v>129.161789</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C80" s="0">
+        <v>87.408363</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>KHR</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C81" s="0">
+        <v>4015.521274</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>KID</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C82" s="0">
+        <v>1.609771</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>KMF</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C83" s="0">
+        <v>473.68443</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C84" s="0">
+        <v>1459.059836</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>KWD</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C85" s="0">
+        <v>0.308815</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>KYD</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C86" s="0">
+        <v>0.833333</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>KZT</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C87" s="0">
+        <v>498.778164</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C88" s="0">
+        <v>21718.410086</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>LBP</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C89" s="0">
+        <v>89500</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C90" s="0">
+        <v>294.976833</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>LRD</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C91" s="0">
+        <v>199.477481</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>LSL</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C92" s="0">
+        <v>18.582892</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>LYD</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C93" s="0">
+        <v>4.889087</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C94" s="0">
+        <v>9.948984</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C95" s="0">
+        <v>18.684432</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C96" s="0">
+        <v>4709.356105</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C97" s="0">
+        <v>58.793838</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>MMK</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C98" s="0">
+        <v>2102.745013</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C99" s="0">
+        <v>3480.06443</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>MOP</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C100" s="0">
+        <v>8.011606</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>MRU</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C101" s="0">
+        <v>39.86741</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>MUR</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C102" s="0">
+        <v>46.642604</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>MVR</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C103" s="0">
+        <v>15.476687</v>
+      </c>
+      <c r="D103" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>MWK</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C104" s="0">
+        <v>1747.843661</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>MXN</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C105" s="0">
+        <v>20.509187</v>
+      </c>
+      <c r="D105" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C106" s="0">
+        <v>4.459935</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C107" s="0">
+        <v>63.93223</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>NAD</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C108" s="0">
+        <v>18.582892</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>NGN</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C109" s="0">
+        <v>1500.832771</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C110" s="0">
+        <v>36.852017</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C111" s="0">
+        <v>11.259928</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C112" s="0">
+        <v>139.955753</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>NZD</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C113" s="0">
+        <v>1.786947</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>OMR</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C114" s="0">
+        <v>0.384497</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>PAB</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C115" s="0">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C116" s="0">
+        <v>3.686598</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>PGK</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C117" s="0">
+        <v>4.036376</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C118" s="0">
+        <v>57.988347</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>PKR</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C119" s="0">
+        <v>279.98279</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C120" s="0">
+        <v>4.006662</v>
+      </c>
+      <c r="D120" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>PYG</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C121" s="0">
+        <v>7927.240706</v>
+      </c>
+      <c r="D121" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C122" s="0">
+        <v>3.64</v>
+      </c>
+      <c r="D122" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C123" s="0">
+        <v>4.780719</v>
+      </c>
+      <c r="D123" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C124" s="0">
+        <v>112.531943</v>
+      </c>
+      <c r="D124" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C125" s="0">
+        <v>88.410508</v>
+      </c>
+      <c r="D125" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>RWF</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C126" s="0">
+        <v>1430.510993</v>
+      </c>
+      <c r="D126" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C127" s="0">
+        <v>3.75</v>
+      </c>
+      <c r="D127" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C128" s="0">
+        <v>8.662641</v>
+      </c>
+      <c r="D128" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C129" s="0">
+        <v>14.411029</v>
+      </c>
+      <c r="D129" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>SDG</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C130" s="0">
+        <v>581.706831</v>
+      </c>
+      <c r="D130" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C131" s="0">
+        <v>10.751725</v>
+      </c>
+      <c r="D131" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C132" s="0">
+        <v>1.349276</v>
+      </c>
+      <c r="D132" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>SHP</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C133" s="0">
+        <v>0.794012</v>
+      </c>
+      <c r="D133" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C134" s="0">
+        <v>22.89137</v>
+      </c>
+      <c r="D134" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C135" s="0">
+        <v>22891.369719</v>
+      </c>
+      <c r="D135" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C136" s="0">
+        <v>572.421987</v>
+      </c>
+      <c r="D136" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>SRD</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C137" s="0">
+        <v>35.601134</v>
+      </c>
+      <c r="D137" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>SSP</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C138" s="0">
+        <v>4409.460228</v>
+      </c>
+      <c r="D138" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C139" s="0">
+        <v>23.58949</v>
+      </c>
+      <c r="D139" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>SYP</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C140" s="0">
+        <v>13013.076473</v>
+      </c>
+      <c r="D140" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>SZL</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C141" s="0">
+        <v>18.582892</v>
+      </c>
+      <c r="D141" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C142" s="0">
+        <v>34.193486</v>
+      </c>
+      <c r="D142" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>TJS</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C143" s="0">
+        <v>10.916253</v>
+      </c>
+      <c r="D143" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>TMT</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C144" s="0">
+        <v>3.500673</v>
+      </c>
+      <c r="D144" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>TND</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C145" s="0">
+        <v>3.169334</v>
+      </c>
+      <c r="D145" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C146" s="0">
+        <v>2.391018</v>
+      </c>
+      <c r="D146" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C147" s="0">
+        <v>36.530653</v>
+      </c>
+      <c r="D147" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C148" s="0">
+        <v>6.759675</v>
+      </c>
+      <c r="D148" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>TVD</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C149" s="0">
+        <v>1.609771</v>
+      </c>
+      <c r="D149" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>TWD</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C150" s="0">
+        <v>32.897828</v>
+      </c>
+      <c r="D150" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>TZS</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C151" s="0">
+        <v>2598.931508</v>
+      </c>
+      <c r="D151" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C152" s="0">
+        <v>41.422364</v>
+      </c>
+      <c r="D152" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>UGX</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C153" s="0">
+        <v>3677.582972</v>
+      </c>
+      <c r="D153" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>UYU</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C154" s="0">
+        <v>42.826934</v>
+      </c>
+      <c r="D154" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>UZS</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C155" s="0">
+        <v>12889.17274</v>
+      </c>
+      <c r="D155" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>VES</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C156" s="0">
+        <v>64.4844</v>
+      </c>
+      <c r="D156" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C157" s="0">
+        <v>25560.319012</v>
+      </c>
+      <c r="D157" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>VUV</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C158" s="0">
+        <v>123.624006</v>
+      </c>
+      <c r="D158" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C159" s="0">
+        <v>2.816777</v>
+      </c>
+      <c r="D159" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C160" s="0">
+        <v>631.57924</v>
+      </c>
+      <c r="D160" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>XCD</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C161" s="0">
+        <v>2.7</v>
+      </c>
+      <c r="D161" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>XDR</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C162" s="0">
+        <v>0.765189</v>
+      </c>
+      <c r="D162" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C163" s="0">
+        <v>631.57924</v>
+      </c>
+      <c r="D163" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>XPF</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C164" s="0">
+        <v>114.897187</v>
+      </c>
+      <c r="D164" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>YER</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C165" s="0">
+        <v>247.68447</v>
+      </c>
+      <c r="D165" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C166" s="0">
+        <v>18.5834</v>
+      </c>
+      <c r="D166" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>ZMW</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C167" s="0">
+        <v>28.51263</v>
+      </c>
+      <c r="D167" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>ZWL</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C168" s="0">
+        <v>26.5615</v>
+      </c>
+      <c r="D168" s="1">
+        <v>45717.2074590046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C169" s="0">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C170" s="0">
+        <v>0.272294077603812</v>
+      </c>
+      <c r="D170" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C171" s="0">
+        <v>1.35930061482254E-02</v>
+      </c>
+      <c r="D171" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C172" s="0">
+        <v>1.05843299503133E-02</v>
+      </c>
+      <c r="D172" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C173" s="0">
+        <v>2.53624371526733E-03</v>
+      </c>
+      <c r="D173" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>ANG</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C174" s="0">
+        <v>0.558659217877095</v>
+      </c>
+      <c r="D174" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>AOA</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C175" s="0">
+        <v>1.08819751519652E-03</v>
+      </c>
+      <c r="D175" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C176" s="0">
+        <v>9.39514083316109E-04</v>
+      </c>
+      <c r="D176" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C177" s="0">
+        <v>0.621204440866307</v>
+      </c>
+      <c r="D177" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>AWG</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C178" s="0">
+        <v>0.558659217877095</v>
+      </c>
+      <c r="D178" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C179" s="0">
+        <v>0.587769227694746</v>
+      </c>
+      <c r="D179" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>BAM</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C180" s="0">
+        <v>0.531026835972183</v>
+      </c>
+      <c r="D180" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>BBD</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C181" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D181" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C182" s="0">
+        <v>8.22820796558661E-03</v>
+      </c>
+      <c r="D182" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>BGN</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C183" s="0">
+        <v>0.531165611063542</v>
+      </c>
+      <c r="D183" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C184" s="0">
+        <v>2.65957446808511</v>
+      </c>
+      <c r="D184" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>BIF</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C185" s="0">
+        <v>3.37087935617391E-04</v>
+      </c>
+      <c r="D185" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>BMD</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C186" s="0">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>BND</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C187" s="0">
+        <v>0.741140407567933</v>
+      </c>
+      <c r="D187" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>BOB</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C188" s="0">
+        <v>0.144265649613072</v>
+      </c>
+      <c r="D188" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C189" s="0">
+        <v>0.171346041383839</v>
+      </c>
+      <c r="D189" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>BSD</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C190" s="0">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C191" s="0">
+        <v>1.14321846521892E-02</v>
+      </c>
+      <c r="D191" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>BWP</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C192" s="0">
+        <v>7.21021289162992E-02</v>
+      </c>
+      <c r="D192" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>BYN</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C193" s="0">
+        <v>0.306487387890745</v>
+      </c>
+      <c r="D193" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>BZD</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C194" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D194" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C195" s="0">
+        <v>0.692491042628364</v>
+      </c>
+      <c r="D195" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>CDF</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C196" s="0">
+        <v>3.50438587366453E-04</v>
+      </c>
+      <c r="D196" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C197" s="0">
+        <v>1.10807621348196</v>
+      </c>
+      <c r="D197" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C198" s="0">
+        <v>1.05105686011291E-03</v>
+      </c>
+      <c r="D198" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C199" s="0">
+        <v>0.137146612608958</v>
+      </c>
+      <c r="D199" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C200" s="0">
+        <v>2.42283994469191E-04</v>
+      </c>
+      <c r="D200" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C201" s="0">
+        <v>1.97409883232232E-03</v>
+      </c>
+      <c r="D201" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C202" s="0">
+        <v>4.16666666666667E-02</v>
+      </c>
+      <c r="D202" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>CVE</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C203" s="0">
+        <v>0.009419109483669</v>
+      </c>
+      <c r="D203" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>CZK</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C204" s="0">
+        <v>4.15257783519224E-02</v>
+      </c>
+      <c r="D204" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>DJF</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C205" s="0">
+        <v>5.6267970583105E-03</v>
+      </c>
+      <c r="D205" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>DKK</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C206" s="0">
+        <v>0.139326645468582</v>
+      </c>
+      <c r="D206" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>DOP</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C207" s="0">
+        <v>1.60195117653302E-02</v>
+      </c>
+      <c r="D207" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>DZD</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C208" s="0">
+        <v>7.41975481375699E-03</v>
+      </c>
+      <c r="D208" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C209" s="0">
+        <v>0.019741797816036</v>
+      </c>
+      <c r="D209" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>ERN</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C210" s="0">
+        <v>6.66666666666667E-02</v>
+      </c>
+      <c r="D210" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C211" s="0">
+        <v>0.007879473493266</v>
+      </c>
+      <c r="D211" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C212" s="0">
+        <v>1.0385952376254</v>
+      </c>
+      <c r="D212" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>FJD</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C213" s="0">
+        <v>0.435188279857397</v>
+      </c>
+      <c r="D213" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>FKP</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C214" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D214" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>FOK</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C215" s="0">
+        <v>0.139326936647903</v>
+      </c>
+      <c r="D215" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C216" s="0">
+        <v>1.25942046507879</v>
+      </c>
+      <c r="D216" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>GEL</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C217" s="0">
+        <v>0.358053079220676</v>
+      </c>
+      <c r="D217" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>GGP</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C218" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D218" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C219" s="0">
+        <v>6.42331632995857E-02</v>
+      </c>
+      <c r="D219" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>GIP</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C220" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D220" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>GMD</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C221" s="0">
+        <v>1.37718875231216E-02</v>
+      </c>
+      <c r="D221" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C222" s="0">
+        <v>1.15611581261824E-04</v>
+      </c>
+      <c r="D222" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>GTQ</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C223" s="0">
+        <v>0.129481232148584</v>
+      </c>
+      <c r="D223" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>GYD</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C224" s="0">
+        <v>4.77175616612296E-03</v>
+      </c>
+      <c r="D224" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C225" s="0">
+        <v>0.128563490694189</v>
+      </c>
+      <c r="D225" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C226" s="0">
+        <v>3.90410350559214E-02</v>
+      </c>
+      <c r="D226" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>HRK</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C227" s="0">
+        <v>0.137845665236288</v>
+      </c>
+      <c r="D227" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>HTG</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C228" s="0">
+        <v>7.62306336170584E-03</v>
+      </c>
+      <c r="D228" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>HUF</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C229" s="0">
+        <v>2.59058893803861E-03</v>
+      </c>
+      <c r="D229" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C230" s="0">
+        <v>6.03383031326671E-05</v>
+      </c>
+      <c r="D230" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>ILS</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C231" s="0">
+        <v>0.278253513994065</v>
+      </c>
+      <c r="D231" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>IMP</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C232" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D232" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C233" s="0">
+        <v>0.01143215001816</v>
+      </c>
+      <c r="D233" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>IQD</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C234" s="0">
+        <v>7.62009349647454E-04</v>
+      </c>
+      <c r="D234" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>IRR</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C235" s="0">
+        <v>2.3809386775732E-05</v>
+      </c>
+      <c r="D235" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>ISK</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C236" s="0">
+        <v>7.14842714622929E-03</v>
+      </c>
+      <c r="D236" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>JEP</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C237" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D237" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>JMD</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C238" s="0">
+        <v>6.33396156942292E-03</v>
+      </c>
+      <c r="D238" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>JOD</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C239" s="0">
+        <v>1.41043723554302</v>
+      </c>
+      <c r="D239" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C240" s="0">
+        <v>6.64140854871084E-03</v>
+      </c>
+      <c r="D240" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>KES</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C241" s="0">
+        <v>7.74222785037454E-03</v>
+      </c>
+      <c r="D241" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C242" s="0">
+        <v>1.14405528908029E-02</v>
+      </c>
+      <c r="D242" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>KHR</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C243" s="0">
+        <v>2.49033670043009E-04</v>
+      </c>
+      <c r="D243" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>KID</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C244" s="0">
+        <v>0.621206370347087</v>
+      </c>
+      <c r="D244" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>KMF</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C245" s="0">
+        <v>2.11111013296342E-03</v>
+      </c>
+      <c r="D245" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C246" s="0">
+        <v>6.85372851288602E-04</v>
+      </c>
+      <c r="D246" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>KWD</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C247" s="0">
+        <v>3.23818467367194</v>
+      </c>
+      <c r="D247" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>KYD</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C248" s="0">
+        <v>1.20000048000019</v>
+      </c>
+      <c r="D248" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>KZT</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C249" s="0">
+        <v>2.00489931632212E-03</v>
+      </c>
+      <c r="D249" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C250" s="0">
+        <v>4.60438860874358E-05</v>
+      </c>
+      <c r="D250" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>LBP</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C251" s="0">
+        <v>1.11731843575419E-05</v>
+      </c>
+      <c r="D251" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C252" s="0">
+        <v>3.39009674024129E-03</v>
+      </c>
+      <c r="D252" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>LRD</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C253" s="0">
+        <v>5.01309719266006E-03</v>
+      </c>
+      <c r="D253" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>LSL</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C254" s="0">
+        <v>0.053812937189755</v>
+      </c>
+      <c r="D254" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>LYD</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C255" s="0">
+        <v>0.204537166141654</v>
+      </c>
+      <c r="D255" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C256" s="0">
+        <v>0.100512775977929</v>
+      </c>
+      <c r="D256" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C257" s="0">
+        <v>5.35204923542765E-02</v>
+      </c>
+      <c r="D257" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C258" s="0">
+        <v>2.12343254089085E-04</v>
+      </c>
+      <c r="D258" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C259" s="0">
+        <v>1.70085851513895E-02</v>
+      </c>
+      <c r="D259" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>MMK</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C260" s="0">
+        <v>4.75568836838326E-04</v>
+      </c>
+      <c r="D260" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C261" s="0">
+        <v>2.87351001716942E-04</v>
+      </c>
+      <c r="D261" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>MOP</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C262" s="0">
+        <v>0.124818918953328</v>
+      </c>
+      <c r="D262" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>MRU</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C263" s="0">
+        <v>2.50831443527433E-02</v>
+      </c>
+      <c r="D263" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>MUR</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C264" s="0">
+        <v>2.14396263124589E-02</v>
+      </c>
+      <c r="D264" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>MVR</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C265" s="0">
+        <v>6.46133116215376E-02</v>
+      </c>
+      <c r="D265" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>MWK</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C266" s="0">
+        <v>5.72133550793591E-04</v>
+      </c>
+      <c r="D266" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>MXN</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C267" s="0">
+        <v>4.87586368001813E-02</v>
+      </c>
+      <c r="D267" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C268" s="0">
+        <v>0.224218514395389</v>
+      </c>
+      <c r="D268" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C269" s="0">
+        <v>1.56415629487662E-02</v>
+      </c>
+      <c r="D269" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>NAD</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C270" s="0">
+        <v>0.053812937189755</v>
+      </c>
+      <c r="D270" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>NGN</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C271" s="0">
+        <v>6.6629675159192E-04</v>
+      </c>
+      <c r="D271" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C272" s="0">
+        <v>2.71355567864847E-02</v>
+      </c>
+      <c r="D272" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C273" s="0">
+        <v>8.88105145965409E-02</v>
+      </c>
+      <c r="D273" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C274" s="0">
+        <v>7.14511535656559E-03</v>
+      </c>
+      <c r="D274" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>NZD</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C275" s="0">
+        <v>0.559613687479259</v>
+      </c>
+      <c r="D275" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>OMR</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C276" s="0">
+        <v>2.60080052640203</v>
+      </c>
+      <c r="D276" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>PAB</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C277" s="0">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C278" s="0">
+        <v>0.27125279186936</v>
+      </c>
+      <c r="D278" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>PGK</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C279" s="0">
+        <v>0.247746988883097</v>
+      </c>
+      <c r="D279" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C280" s="0">
+        <v>1.72448440373719E-02</v>
+      </c>
+      <c r="D280" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>PKR</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C281" s="0">
+        <v>3.57164810022787E-03</v>
+      </c>
+      <c r="D281" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C282" s="0">
+        <v>0.249584317319504</v>
+      </c>
+      <c r="D282" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>PYG</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C283" s="0">
+        <v>1.26147298547793E-04</v>
+      </c>
+      <c r="D283" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C284" s="0">
+        <v>0.274725274725275</v>
+      </c>
+      <c r="D284" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C285" s="0">
+        <v>0.20917355736658</v>
+      </c>
+      <c r="D285" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C286" s="0">
+        <v>8.88636571395555E-03</v>
+      </c>
+      <c r="D286" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C287" s="0">
+        <v>1.13108726849528E-02</v>
+      </c>
+      <c r="D287" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>RWF</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C288" s="0">
+        <v>6.99050902015683E-04</v>
+      </c>
+      <c r="D288" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C289" s="0">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="D289" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C290" s="0">
+        <v>0.115438236445444</v>
+      </c>
+      <c r="D290" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C291" s="0">
+        <v>6.93912974569686E-02</v>
+      </c>
+      <c r="D291" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>SDG</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C292" s="0">
+        <v>1.71907900459226E-03</v>
+      </c>
+      <c r="D292" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C293" s="0">
+        <v>9.30083312212691E-02</v>
+      </c>
+      <c r="D293" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C294" s="0">
+        <v>0.741138210418032</v>
+      </c>
+      <c r="D294" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>SHP</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C295" s="0">
+        <v>1.25942680967038</v>
+      </c>
+      <c r="D295" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C296" s="0">
+        <v>0.043684585064153</v>
+      </c>
+      <c r="D296" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C297" s="0">
+        <v>4.36845856003974E-05</v>
+      </c>
+      <c r="D297" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C298" s="0">
+        <v>1.74696294466411E-03</v>
+      </c>
+      <c r="D298" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>SRD</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C299" s="0">
+        <v>2.80889928955634E-02</v>
+      </c>
+      <c r="D299" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>SSP</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C300" s="0">
+        <v>2.26785127497016E-04</v>
+      </c>
+      <c r="D300" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C301" s="0">
+        <v>4.23917600592467E-02</v>
+      </c>
+      <c r="D301" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>SYP</t>
+        </is>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C302" s="0">
+        <v>7.68457790957301E-05</v>
+      </c>
+      <c r="D302" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>SZL</t>
+        </is>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C303" s="0">
+        <v>0.053812937189755</v>
+      </c>
+      <c r="D303" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="304">
+      <c r="A304" s="0" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C304" s="0">
+        <v>2.92453363778118E-02</v>
+      </c>
+      <c r="D304" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>TJS</t>
+        </is>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C305" s="0">
+        <v>9.16065246930426E-02</v>
+      </c>
+      <c r="D305" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>TMT</t>
+        </is>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C306" s="0">
+        <v>0.285659357500686</v>
+      </c>
+      <c r="D306" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>TND</t>
+        </is>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C307" s="0">
+        <v>0.315523703087147</v>
+      </c>
+      <c r="D307" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C308" s="0">
+        <v>0.418231899550735</v>
+      </c>
+      <c r="D308" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C309" s="0">
+        <v>2.73742711360785E-02</v>
+      </c>
+      <c r="D309" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C310" s="0">
+        <v>0.147936106395648</v>
+      </c>
+      <c r="D310" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>TVD</t>
+        </is>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C311" s="0">
+        <v>0.621206370347087</v>
+      </c>
+      <c r="D311" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>TWD</t>
+        </is>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C312" s="0">
+        <v>3.03971435439446E-02</v>
+      </c>
+      <c r="D312" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>TZS</t>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C313" s="0">
+        <v>3.84773510545319E-04</v>
+      </c>
+      <c r="D313" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="314">
+      <c r="A314" s="0" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C314" s="0">
+        <v>2.41415482708809E-02</v>
+      </c>
+      <c r="D314" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="315">
+      <c r="A315" s="0" t="inlineStr">
+        <is>
+          <t>UGX</t>
+        </is>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C315" s="0">
+        <v>2.71917726292975E-04</v>
+      </c>
+      <c r="D315" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="316">
+      <c r="A316" s="0" t="inlineStr">
+        <is>
+          <t>UYU</t>
+        </is>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C316" s="0">
+        <v>2.33497919790382E-02</v>
+      </c>
+      <c r="D316" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="317">
+      <c r="A317" s="0" t="inlineStr">
+        <is>
+          <t>UZS</t>
+        </is>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C317" s="0">
+        <v>7.75844982584972E-05</v>
+      </c>
+      <c r="D317" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="318">
+      <c r="A318" s="0" t="inlineStr">
+        <is>
+          <t>VES</t>
+        </is>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C318" s="0">
+        <v>1.55076266507869E-02</v>
+      </c>
+      <c r="D318" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="319">
+      <c r="A319" s="0" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C319" s="0">
+        <v>3.91231423805987E-05</v>
+      </c>
+      <c r="D319" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="320">
+      <c r="A320" s="0" t="inlineStr">
+        <is>
+          <t>VUV</t>
+        </is>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C320" s="0">
+        <v>8.0890438059417E-03</v>
+      </c>
+      <c r="D320" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="321">
+      <c r="A321" s="0" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C321" s="0">
+        <v>0.355015679267475</v>
+      </c>
+      <c r="D321" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="322">
+      <c r="A322" s="0" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C322" s="0">
+        <v>1.58333259972256E-03</v>
+      </c>
+      <c r="D322" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="323">
+      <c r="A323" s="0" t="inlineStr">
+        <is>
+          <t>XCD</t>
+        </is>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C323" s="0">
+        <v>0.37037037037037</v>
+      </c>
+      <c r="D323" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="324">
+      <c r="A324" s="0" t="inlineStr">
+        <is>
+          <t>XDR</t>
+        </is>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C324" s="0">
+        <v>1.30686666954177</v>
+      </c>
+      <c r="D324" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="325">
+      <c r="A325" s="0" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C325" s="0">
+        <v>1.58333259972256E-03</v>
+      </c>
+      <c r="D325" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="326">
+      <c r="A326" s="0" t="inlineStr">
+        <is>
+          <t>XPF</t>
+        </is>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C326" s="0">
+        <v>8.70343327030278E-03</v>
+      </c>
+      <c r="D326" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="327">
+      <c r="A327" s="0" t="inlineStr">
+        <is>
+          <t>YER</t>
+        </is>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C327" s="0">
+        <v>4.03739483545335E-03</v>
+      </c>
+      <c r="D327" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="328">
+      <c r="A328" s="0" t="inlineStr">
+        <is>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C328" s="0">
+        <v>5.38114661472066E-02</v>
+      </c>
+      <c r="D328" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="329">
+      <c r="A329" s="0" t="inlineStr">
+        <is>
+          <t>ZMW</t>
+        </is>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C329" s="0">
+        <v>3.50721767862172E-02</v>
+      </c>
+      <c r="D329" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="330">
+      <c r="A330" s="0" t="inlineStr">
+        <is>
+          <t>ZWL</t>
+        </is>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C330" s="0">
+        <v>3.76484761779267E-02</v>
+      </c>
+      <c r="D330" s="1">
+        <v>45717.210345625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>effdt</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>exrt</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>uni from</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>uni to</t>
+        </is>
       </c>
     </row>
   </sheetData>
